--- a/leads/steuerberater_kärnten_test_qualified.xlsx
+++ b/leads/steuerberater_kärnten_test_qualified.xlsx
@@ -709,14 +709,12 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Fuck No</t>
-        </is>
+      <c r="B2" t="n">
+        <v>2</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>no web</t>
+          <t>NoHire</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -838,14 +836,12 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Fuck No</t>
-        </is>
+      <c r="B3" t="n">
+        <v>2</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>no web</t>
+          <t>NoHire</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -988,14 +984,12 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Fuck No</t>
-        </is>
+      <c r="B4" t="n">
+        <v>2</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>no web</t>
+          <t>NoHire</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1109,14 +1103,12 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Fuck No</t>
-        </is>
+      <c r="B5" t="n">
+        <v>2</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>no web</t>
+          <t>NoHire</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1238,14 +1230,12 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Fuck No</t>
-        </is>
+      <c r="B6" t="n">
+        <v>2</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>no web</t>
+          <t>NoHire</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1387,14 +1377,12 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Fuck No</t>
-        </is>
+      <c r="B7" t="n">
+        <v>2</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>no web</t>
+          <t>NoHire</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1516,14 +1504,12 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Fuck No</t>
-        </is>
+      <c r="B8" t="n">
+        <v>2</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>no web</t>
+          <t>NoHire</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1645,14 +1631,12 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Fuck No</t>
-        </is>
+      <c r="B9" t="n">
+        <v>2</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>no web</t>
+          <t>NoHire</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1774,14 +1758,12 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Fuck No</t>
-        </is>
+      <c r="B10" t="n">
+        <v>2</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>no web</t>
+          <t>NoHire</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1915,14 +1897,12 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Fuck No</t>
-        </is>
+      <c r="B11" t="n">
+        <v>2</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>no web</t>
+          <t>NoHire</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2040,14 +2020,12 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Fuck No</t>
-        </is>
+      <c r="B12" t="n">
+        <v>2</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>no web</t>
+          <t>NoHire</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2165,14 +2143,12 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Fuck No</t>
-        </is>
+      <c r="B13" t="n">
+        <v>2</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>no web</t>
+          <t>NoHire</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2294,14 +2270,12 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Fuck No</t>
-        </is>
+      <c r="B14" t="n">
+        <v>2</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>no web</t>
+          <t>NoHire</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2471,14 +2445,12 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Fuck No</t>
-        </is>
+      <c r="B15" t="n">
+        <v>2</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>no web</t>
+          <t>NoHire</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2596,14 +2568,12 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Fuck No</t>
-        </is>
+      <c r="B16" t="n">
+        <v>2</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>no web</t>
+          <t>NoHire</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
